--- a/kartIslemDataSet.xlsx
+++ b/kartIslemDataSet.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emre Sen\Desktop\data_manager\MaYaBi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eda\MaYaBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BBCB09-EEE8-402F-913B-6C7538B86456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055D119C-EEF1-4602-8BFC-FF92B2CD6913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -453,6 +456,92 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>866</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>963</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Resim 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521AA24C-20C4-088A-9341-3303C2082172}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="[1]Sayfa1!$A$2:$F$98" spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="251841000"/>
+              <a:ext cx="3800475" cy="18488025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sayfa1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -739,11 +828,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F866"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I365" sqref="I365"/>
+    <sheetView tabSelected="1" topLeftCell="A921" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A867" sqref="A867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18073,8 +18162,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B867" s="1"/>
+      <c r="D867" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/kartIslemDataSet.xlsx
+++ b/kartIslemDataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eda\MaYaBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055D119C-EEF1-4602-8BFC-FF92B2CD6913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0872FE-EE6B-41C7-80FE-6AE105F699DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="122">
   <si>
     <t>Kadın</t>
   </si>
@@ -389,6 +389,9 @@
   <si>
     <t>30/06/2024</t>
   </si>
+  <si>
+    <t>Aydın</t>
+  </si>
 </sst>
 </file>
 
@@ -454,76 +457,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>866</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>963</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="Resim 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{521AA24C-20C4-088A-9341-3303C2082172}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]Sayfa1!$A$2:$F$98" spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="251841000"/>
-              <a:ext cx="3800475" cy="18488025"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,11 +761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F867"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A921" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A867" sqref="A867"/>
+    <sheetView tabSelected="1" topLeftCell="A879" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A867" sqref="A867:F963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18163,13 +18096,1927 @@
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B867" s="1"/>
-      <c r="D867" s="1"/>
+      <c r="A867" t="s">
+        <v>0</v>
+      </c>
+      <c r="B867" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C867" t="s">
+        <v>121</v>
+      </c>
+      <c r="D867" s="1">
+        <v>45473</v>
+      </c>
+      <c r="E867">
+        <v>3</v>
+      </c>
+      <c r="F867">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>0</v>
+      </c>
+      <c r="B868" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C868" t="s">
+        <v>121</v>
+      </c>
+      <c r="D868" s="1">
+        <v>45473</v>
+      </c>
+      <c r="E868">
+        <v>3</v>
+      </c>
+      <c r="F868">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>0</v>
+      </c>
+      <c r="B869" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C869" t="s">
+        <v>121</v>
+      </c>
+      <c r="D869" s="1">
+        <v>45472</v>
+      </c>
+      <c r="E869">
+        <v>3</v>
+      </c>
+      <c r="F869">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>0</v>
+      </c>
+      <c r="B870" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C870" t="s">
+        <v>121</v>
+      </c>
+      <c r="D870" s="1">
+        <v>45472</v>
+      </c>
+      <c r="E870">
+        <v>3</v>
+      </c>
+      <c r="F870">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>0</v>
+      </c>
+      <c r="B871" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C871" t="s">
+        <v>121</v>
+      </c>
+      <c r="D871" s="1">
+        <v>45471</v>
+      </c>
+      <c r="E871">
+        <v>3</v>
+      </c>
+      <c r="F871">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>0</v>
+      </c>
+      <c r="B872" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C872" t="s">
+        <v>121</v>
+      </c>
+      <c r="D872" s="1">
+        <v>45471</v>
+      </c>
+      <c r="E872">
+        <v>3</v>
+      </c>
+      <c r="F872">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>0</v>
+      </c>
+      <c r="B873" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C873" t="s">
+        <v>121</v>
+      </c>
+      <c r="D873" s="1">
+        <v>45471</v>
+      </c>
+      <c r="E873">
+        <v>3</v>
+      </c>
+      <c r="F873">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>0</v>
+      </c>
+      <c r="B874" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C874" t="s">
+        <v>121</v>
+      </c>
+      <c r="D874" s="1">
+        <v>45471</v>
+      </c>
+      <c r="E874">
+        <v>3</v>
+      </c>
+      <c r="F874">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>0</v>
+      </c>
+      <c r="B875" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C875" t="s">
+        <v>121</v>
+      </c>
+      <c r="D875" s="1">
+        <v>45469</v>
+      </c>
+      <c r="E875">
+        <v>3</v>
+      </c>
+      <c r="F875">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>0</v>
+      </c>
+      <c r="B876" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C876" t="s">
+        <v>121</v>
+      </c>
+      <c r="D876" s="1">
+        <v>45469</v>
+      </c>
+      <c r="E876">
+        <v>3</v>
+      </c>
+      <c r="F876">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>0</v>
+      </c>
+      <c r="B877" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C877" t="s">
+        <v>121</v>
+      </c>
+      <c r="D877" s="1">
+        <v>45466</v>
+      </c>
+      <c r="E877">
+        <v>3</v>
+      </c>
+      <c r="F877">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>0</v>
+      </c>
+      <c r="B878" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C878" t="s">
+        <v>121</v>
+      </c>
+      <c r="D878" s="1">
+        <v>45466</v>
+      </c>
+      <c r="E878">
+        <v>3</v>
+      </c>
+      <c r="F878">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>0</v>
+      </c>
+      <c r="B879" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C879" t="s">
+        <v>121</v>
+      </c>
+      <c r="D879" s="1">
+        <v>45466</v>
+      </c>
+      <c r="E879">
+        <v>3</v>
+      </c>
+      <c r="F879">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>0</v>
+      </c>
+      <c r="B880" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C880" t="s">
+        <v>121</v>
+      </c>
+      <c r="D880" s="1">
+        <v>45463</v>
+      </c>
+      <c r="E880">
+        <v>3</v>
+      </c>
+      <c r="F880">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>0</v>
+      </c>
+      <c r="B881" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C881" t="s">
+        <v>121</v>
+      </c>
+      <c r="D881" s="1">
+        <v>45457</v>
+      </c>
+      <c r="E881">
+        <v>3</v>
+      </c>
+      <c r="F881">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>0</v>
+      </c>
+      <c r="B882" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C882" t="s">
+        <v>121</v>
+      </c>
+      <c r="D882" s="1">
+        <v>45457</v>
+      </c>
+      <c r="E882">
+        <v>3</v>
+      </c>
+      <c r="F882">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>0</v>
+      </c>
+      <c r="B883" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C883" t="s">
+        <v>121</v>
+      </c>
+      <c r="D883" s="1">
+        <v>45457</v>
+      </c>
+      <c r="E883">
+        <v>3</v>
+      </c>
+      <c r="F883">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>0</v>
+      </c>
+      <c r="B884" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C884" t="s">
+        <v>121</v>
+      </c>
+      <c r="D884" s="1">
+        <v>45452</v>
+      </c>
+      <c r="E884">
+        <v>3</v>
+      </c>
+      <c r="F884">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>0</v>
+      </c>
+      <c r="B885" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C885" t="s">
+        <v>121</v>
+      </c>
+      <c r="D885" s="1">
+        <v>45452</v>
+      </c>
+      <c r="E885">
+        <v>3</v>
+      </c>
+      <c r="F885">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>0</v>
+      </c>
+      <c r="B886" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C886" t="s">
+        <v>121</v>
+      </c>
+      <c r="D886" s="1">
+        <v>45452</v>
+      </c>
+      <c r="E886">
+        <v>3</v>
+      </c>
+      <c r="F886">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>0</v>
+      </c>
+      <c r="B887" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C887" t="s">
+        <v>121</v>
+      </c>
+      <c r="D887" s="1">
+        <v>45452</v>
+      </c>
+      <c r="E887">
+        <v>3</v>
+      </c>
+      <c r="F887">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>0</v>
+      </c>
+      <c r="B888" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C888" t="s">
+        <v>121</v>
+      </c>
+      <c r="D888" s="1">
+        <v>45452</v>
+      </c>
+      <c r="E888">
+        <v>3</v>
+      </c>
+      <c r="F888">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>0</v>
+      </c>
+      <c r="B889" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C889" t="s">
+        <v>121</v>
+      </c>
+      <c r="D889" s="1">
+        <v>45449</v>
+      </c>
+      <c r="E889">
+        <v>3</v>
+      </c>
+      <c r="F889">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>0</v>
+      </c>
+      <c r="B890" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C890" t="s">
+        <v>121</v>
+      </c>
+      <c r="D890" s="1">
+        <v>45449</v>
+      </c>
+      <c r="E890">
+        <v>3</v>
+      </c>
+      <c r="F890">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>0</v>
+      </c>
+      <c r="B891" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C891" t="s">
+        <v>121</v>
+      </c>
+      <c r="D891" s="1">
+        <v>45449</v>
+      </c>
+      <c r="E891">
+        <v>3</v>
+      </c>
+      <c r="F891">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>0</v>
+      </c>
+      <c r="B892" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C892" t="s">
+        <v>121</v>
+      </c>
+      <c r="D892" s="1">
+        <v>45449</v>
+      </c>
+      <c r="E892">
+        <v>3</v>
+      </c>
+      <c r="F892">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>0</v>
+      </c>
+      <c r="B893" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C893" t="s">
+        <v>121</v>
+      </c>
+      <c r="D893" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E893">
+        <v>3</v>
+      </c>
+      <c r="F893">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>0</v>
+      </c>
+      <c r="B894" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C894" t="s">
+        <v>121</v>
+      </c>
+      <c r="D894" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E894">
+        <v>3</v>
+      </c>
+      <c r="F894">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>0</v>
+      </c>
+      <c r="B895" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C895" t="s">
+        <v>121</v>
+      </c>
+      <c r="D895" s="1">
+        <v>45447</v>
+      </c>
+      <c r="E895">
+        <v>3</v>
+      </c>
+      <c r="F895">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>0</v>
+      </c>
+      <c r="B896" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C896" t="s">
+        <v>121</v>
+      </c>
+      <c r="D896" s="1">
+        <v>45441</v>
+      </c>
+      <c r="E896">
+        <v>3</v>
+      </c>
+      <c r="F896">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>0</v>
+      </c>
+      <c r="B897" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C897" t="s">
+        <v>121</v>
+      </c>
+      <c r="D897" s="1">
+        <v>45439</v>
+      </c>
+      <c r="E897">
+        <v>3</v>
+      </c>
+      <c r="F897">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>0</v>
+      </c>
+      <c r="B898" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C898" t="s">
+        <v>121</v>
+      </c>
+      <c r="D898" s="1">
+        <v>45435</v>
+      </c>
+      <c r="E898">
+        <v>3</v>
+      </c>
+      <c r="F898">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>0</v>
+      </c>
+      <c r="B899" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C899" t="s">
+        <v>121</v>
+      </c>
+      <c r="D899" s="1">
+        <v>45433</v>
+      </c>
+      <c r="E899">
+        <v>3</v>
+      </c>
+      <c r="F899">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>0</v>
+      </c>
+      <c r="B900" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C900" t="s">
+        <v>121</v>
+      </c>
+      <c r="D900" s="1">
+        <v>45429</v>
+      </c>
+      <c r="E900">
+        <v>3</v>
+      </c>
+      <c r="F900">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>0</v>
+      </c>
+      <c r="B901" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C901" t="s">
+        <v>121</v>
+      </c>
+      <c r="D901" s="1">
+        <v>45422</v>
+      </c>
+      <c r="E901">
+        <v>3</v>
+      </c>
+      <c r="F901">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>0</v>
+      </c>
+      <c r="B902" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C902" t="s">
+        <v>121</v>
+      </c>
+      <c r="D902" s="1">
+        <v>45422</v>
+      </c>
+      <c r="E902">
+        <v>3</v>
+      </c>
+      <c r="F902">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>0</v>
+      </c>
+      <c r="B903" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C903" t="s">
+        <v>121</v>
+      </c>
+      <c r="D903" s="1">
+        <v>45408</v>
+      </c>
+      <c r="E903">
+        <v>3</v>
+      </c>
+      <c r="F903">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>0</v>
+      </c>
+      <c r="B904" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C904" t="s">
+        <v>121</v>
+      </c>
+      <c r="D904" s="1">
+        <v>45408</v>
+      </c>
+      <c r="E904">
+        <v>3</v>
+      </c>
+      <c r="F904">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>0</v>
+      </c>
+      <c r="B905" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C905" t="s">
+        <v>121</v>
+      </c>
+      <c r="D905" s="1">
+        <v>45407</v>
+      </c>
+      <c r="E905">
+        <v>3</v>
+      </c>
+      <c r="F905">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>0</v>
+      </c>
+      <c r="B906" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C906" t="s">
+        <v>121</v>
+      </c>
+      <c r="D906" s="1">
+        <v>45406</v>
+      </c>
+      <c r="E906">
+        <v>3</v>
+      </c>
+      <c r="F906">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>0</v>
+      </c>
+      <c r="B907" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C907" t="s">
+        <v>121</v>
+      </c>
+      <c r="D907" s="1">
+        <v>45405</v>
+      </c>
+      <c r="E907">
+        <v>3</v>
+      </c>
+      <c r="F907">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>0</v>
+      </c>
+      <c r="B908" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C908" t="s">
+        <v>121</v>
+      </c>
+      <c r="D908" s="1">
+        <v>45404</v>
+      </c>
+      <c r="E908">
+        <v>3</v>
+      </c>
+      <c r="F908">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>0</v>
+      </c>
+      <c r="B909" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C909" t="s">
+        <v>121</v>
+      </c>
+      <c r="D909" s="1">
+        <v>45404</v>
+      </c>
+      <c r="E909">
+        <v>3</v>
+      </c>
+      <c r="F909">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>0</v>
+      </c>
+      <c r="B910" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C910" t="s">
+        <v>121</v>
+      </c>
+      <c r="D910" s="1">
+        <v>45404</v>
+      </c>
+      <c r="E910">
+        <v>3</v>
+      </c>
+      <c r="F910">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>0</v>
+      </c>
+      <c r="B911" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C911" t="s">
+        <v>121</v>
+      </c>
+      <c r="D911" s="1">
+        <v>45400</v>
+      </c>
+      <c r="E911">
+        <v>3</v>
+      </c>
+      <c r="F911">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>0</v>
+      </c>
+      <c r="B912" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C912" t="s">
+        <v>121</v>
+      </c>
+      <c r="D912" s="1">
+        <v>45386</v>
+      </c>
+      <c r="E912">
+        <v>3</v>
+      </c>
+      <c r="F912">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>0</v>
+      </c>
+      <c r="B913" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C913" t="s">
+        <v>121</v>
+      </c>
+      <c r="D913" s="1">
+        <v>45377</v>
+      </c>
+      <c r="E913">
+        <v>3</v>
+      </c>
+      <c r="F913">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>0</v>
+      </c>
+      <c r="B914" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C914" t="s">
+        <v>121</v>
+      </c>
+      <c r="D914" s="1">
+        <v>45377</v>
+      </c>
+      <c r="E914">
+        <v>3</v>
+      </c>
+      <c r="F914">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>0</v>
+      </c>
+      <c r="B915" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C915" t="s">
+        <v>121</v>
+      </c>
+      <c r="D915" s="1">
+        <v>45376</v>
+      </c>
+      <c r="E915">
+        <v>3</v>
+      </c>
+      <c r="F915">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>0</v>
+      </c>
+      <c r="B916" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C916" t="s">
+        <v>121</v>
+      </c>
+      <c r="D916" s="1">
+        <v>45373</v>
+      </c>
+      <c r="E916">
+        <v>3</v>
+      </c>
+      <c r="F916">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>0</v>
+      </c>
+      <c r="B917" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C917" t="s">
+        <v>121</v>
+      </c>
+      <c r="D917" s="1">
+        <v>45373</v>
+      </c>
+      <c r="E917">
+        <v>3</v>
+      </c>
+      <c r="F917">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>0</v>
+      </c>
+      <c r="B918" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C918" t="s">
+        <v>121</v>
+      </c>
+      <c r="D918" s="1">
+        <v>45373</v>
+      </c>
+      <c r="E918">
+        <v>3</v>
+      </c>
+      <c r="F918">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>0</v>
+      </c>
+      <c r="B919" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C919" t="s">
+        <v>121</v>
+      </c>
+      <c r="D919" s="1">
+        <v>45364</v>
+      </c>
+      <c r="E919">
+        <v>3</v>
+      </c>
+      <c r="F919">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>0</v>
+      </c>
+      <c r="B920" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C920" t="s">
+        <v>121</v>
+      </c>
+      <c r="D920" s="1">
+        <v>45356</v>
+      </c>
+      <c r="E920">
+        <v>3</v>
+      </c>
+      <c r="F920">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>0</v>
+      </c>
+      <c r="B921" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C921" t="s">
+        <v>121</v>
+      </c>
+      <c r="D921" s="1">
+        <v>45356</v>
+      </c>
+      <c r="E921">
+        <v>3</v>
+      </c>
+      <c r="F921">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>0</v>
+      </c>
+      <c r="B922" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C922" t="s">
+        <v>121</v>
+      </c>
+      <c r="D922" s="1">
+        <v>45348</v>
+      </c>
+      <c r="E922">
+        <v>3</v>
+      </c>
+      <c r="F922">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>0</v>
+      </c>
+      <c r="B923" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C923" t="s">
+        <v>121</v>
+      </c>
+      <c r="D923" s="1">
+        <v>45337</v>
+      </c>
+      <c r="E923">
+        <v>3</v>
+      </c>
+      <c r="F923">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>0</v>
+      </c>
+      <c r="B924" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C924" t="s">
+        <v>121</v>
+      </c>
+      <c r="D924" s="1">
+        <v>45337</v>
+      </c>
+      <c r="E924">
+        <v>3</v>
+      </c>
+      <c r="F924">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>0</v>
+      </c>
+      <c r="B925" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C925" t="s">
+        <v>121</v>
+      </c>
+      <c r="D925" s="1">
+        <v>45337</v>
+      </c>
+      <c r="E925">
+        <v>3</v>
+      </c>
+      <c r="F925">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>0</v>
+      </c>
+      <c r="B926" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C926" t="s">
+        <v>121</v>
+      </c>
+      <c r="D926" s="1">
+        <v>45317</v>
+      </c>
+      <c r="E926">
+        <v>3</v>
+      </c>
+      <c r="F926">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>0</v>
+      </c>
+      <c r="B927" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C927" t="s">
+        <v>121</v>
+      </c>
+      <c r="D927" s="1">
+        <v>45311</v>
+      </c>
+      <c r="E927">
+        <v>3</v>
+      </c>
+      <c r="F927">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>0</v>
+      </c>
+      <c r="B928" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C928" t="s">
+        <v>121</v>
+      </c>
+      <c r="D928" s="1">
+        <v>45302</v>
+      </c>
+      <c r="E928">
+        <v>3</v>
+      </c>
+      <c r="F928">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>0</v>
+      </c>
+      <c r="B929" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C929" t="s">
+        <v>121</v>
+      </c>
+      <c r="D929" s="1">
+        <v>45302</v>
+      </c>
+      <c r="E929">
+        <v>3</v>
+      </c>
+      <c r="F929">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>0</v>
+      </c>
+      <c r="B930" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C930" t="s">
+        <v>121</v>
+      </c>
+      <c r="D930" s="1">
+        <v>45302</v>
+      </c>
+      <c r="E930">
+        <v>3</v>
+      </c>
+      <c r="F930">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>0</v>
+      </c>
+      <c r="B931" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C931" t="s">
+        <v>121</v>
+      </c>
+      <c r="D931" s="1">
+        <v>45302</v>
+      </c>
+      <c r="E931">
+        <v>3</v>
+      </c>
+      <c r="F931">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>0</v>
+      </c>
+      <c r="B932" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C932" t="s">
+        <v>121</v>
+      </c>
+      <c r="D932" s="1">
+        <v>45271</v>
+      </c>
+      <c r="E932">
+        <v>3</v>
+      </c>
+      <c r="F932">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>0</v>
+      </c>
+      <c r="B933" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C933" t="s">
+        <v>121</v>
+      </c>
+      <c r="D933" s="1">
+        <v>45270</v>
+      </c>
+      <c r="E933">
+        <v>3</v>
+      </c>
+      <c r="F933">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>0</v>
+      </c>
+      <c r="B934" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C934" t="s">
+        <v>121</v>
+      </c>
+      <c r="D934" s="1">
+        <v>45270</v>
+      </c>
+      <c r="E934">
+        <v>3</v>
+      </c>
+      <c r="F934">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>0</v>
+      </c>
+      <c r="B935" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C935" t="s">
+        <v>121</v>
+      </c>
+      <c r="D935" s="1">
+        <v>45270</v>
+      </c>
+      <c r="E935">
+        <v>3</v>
+      </c>
+      <c r="F935">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>0</v>
+      </c>
+      <c r="B936" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C936" t="s">
+        <v>121</v>
+      </c>
+      <c r="D936" s="1">
+        <v>45258</v>
+      </c>
+      <c r="E936">
+        <v>3</v>
+      </c>
+      <c r="F936">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>0</v>
+      </c>
+      <c r="B937" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C937" t="s">
+        <v>121</v>
+      </c>
+      <c r="D937" s="1">
+        <v>45247</v>
+      </c>
+      <c r="E937">
+        <v>3</v>
+      </c>
+      <c r="F937">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>0</v>
+      </c>
+      <c r="B938" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C938" t="s">
+        <v>121</v>
+      </c>
+      <c r="D938" s="1">
+        <v>45247</v>
+      </c>
+      <c r="E938">
+        <v>3</v>
+      </c>
+      <c r="F938">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>0</v>
+      </c>
+      <c r="B939" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C939" t="s">
+        <v>121</v>
+      </c>
+      <c r="D939" s="1">
+        <v>45247</v>
+      </c>
+      <c r="E939">
+        <v>3</v>
+      </c>
+      <c r="F939">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>0</v>
+      </c>
+      <c r="B940" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C940" t="s">
+        <v>121</v>
+      </c>
+      <c r="D940" s="1">
+        <v>45247</v>
+      </c>
+      <c r="E940">
+        <v>3</v>
+      </c>
+      <c r="F940">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>0</v>
+      </c>
+      <c r="B941" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C941" t="s">
+        <v>121</v>
+      </c>
+      <c r="D941" s="1">
+        <v>45245</v>
+      </c>
+      <c r="E941">
+        <v>3</v>
+      </c>
+      <c r="F941">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>0</v>
+      </c>
+      <c r="B942" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C942" t="s">
+        <v>121</v>
+      </c>
+      <c r="D942" s="1">
+        <v>45228</v>
+      </c>
+      <c r="E942">
+        <v>3</v>
+      </c>
+      <c r="F942">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>0</v>
+      </c>
+      <c r="B943" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C943" t="s">
+        <v>121</v>
+      </c>
+      <c r="D943" s="1">
+        <v>45212</v>
+      </c>
+      <c r="E943">
+        <v>3</v>
+      </c>
+      <c r="F943">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>0</v>
+      </c>
+      <c r="B944" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C944" t="s">
+        <v>121</v>
+      </c>
+      <c r="D944" s="1">
+        <v>45212</v>
+      </c>
+      <c r="E944">
+        <v>3</v>
+      </c>
+      <c r="F944">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>0</v>
+      </c>
+      <c r="B945" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C945" t="s">
+        <v>121</v>
+      </c>
+      <c r="D945" s="1">
+        <v>45212</v>
+      </c>
+      <c r="E945">
+        <v>3</v>
+      </c>
+      <c r="F945">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>0</v>
+      </c>
+      <c r="B946" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C946" t="s">
+        <v>121</v>
+      </c>
+      <c r="D946" s="1">
+        <v>45212</v>
+      </c>
+      <c r="E946">
+        <v>3</v>
+      </c>
+      <c r="F946">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>0</v>
+      </c>
+      <c r="B947" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C947" t="s">
+        <v>121</v>
+      </c>
+      <c r="D947" s="1">
+        <v>45212</v>
+      </c>
+      <c r="E947">
+        <v>3</v>
+      </c>
+      <c r="F947">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>0</v>
+      </c>
+      <c r="B948" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C948" t="s">
+        <v>121</v>
+      </c>
+      <c r="D948" s="1">
+        <v>45197</v>
+      </c>
+      <c r="E948">
+        <v>3</v>
+      </c>
+      <c r="F948">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>0</v>
+      </c>
+      <c r="B949" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C949" t="s">
+        <v>121</v>
+      </c>
+      <c r="D949" s="1">
+        <v>45195</v>
+      </c>
+      <c r="E949">
+        <v>3</v>
+      </c>
+      <c r="F949">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>0</v>
+      </c>
+      <c r="B950" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C950" t="s">
+        <v>121</v>
+      </c>
+      <c r="D950" s="1">
+        <v>45195</v>
+      </c>
+      <c r="E950">
+        <v>3</v>
+      </c>
+      <c r="F950">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>0</v>
+      </c>
+      <c r="B951" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C951" t="s">
+        <v>121</v>
+      </c>
+      <c r="D951" s="1">
+        <v>45194</v>
+      </c>
+      <c r="E951">
+        <v>3</v>
+      </c>
+      <c r="F951">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>0</v>
+      </c>
+      <c r="B952" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C952" t="s">
+        <v>121</v>
+      </c>
+      <c r="D952" s="1">
+        <v>45192</v>
+      </c>
+      <c r="E952">
+        <v>3</v>
+      </c>
+      <c r="F952">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>0</v>
+      </c>
+      <c r="B953" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C953" t="s">
+        <v>121</v>
+      </c>
+      <c r="D953" s="1">
+        <v>45151</v>
+      </c>
+      <c r="E953">
+        <v>3</v>
+      </c>
+      <c r="F953">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>0</v>
+      </c>
+      <c r="B954" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C954" t="s">
+        <v>121</v>
+      </c>
+      <c r="D954" s="1">
+        <v>45145</v>
+      </c>
+      <c r="E954">
+        <v>3</v>
+      </c>
+      <c r="F954">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>0</v>
+      </c>
+      <c r="B955" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C955" t="s">
+        <v>121</v>
+      </c>
+      <c r="D955" s="1">
+        <v>45145</v>
+      </c>
+      <c r="E955">
+        <v>3</v>
+      </c>
+      <c r="F955">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>0</v>
+      </c>
+      <c r="B956" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C956" t="s">
+        <v>121</v>
+      </c>
+      <c r="D956" s="1">
+        <v>45119</v>
+      </c>
+      <c r="E956">
+        <v>3</v>
+      </c>
+      <c r="F956">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>0</v>
+      </c>
+      <c r="B957" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C957" t="s">
+        <v>121</v>
+      </c>
+      <c r="D957" s="1">
+        <v>45119</v>
+      </c>
+      <c r="E957">
+        <v>3</v>
+      </c>
+      <c r="F957">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>0</v>
+      </c>
+      <c r="B958" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C958" t="s">
+        <v>121</v>
+      </c>
+      <c r="D958" s="1">
+        <v>45116</v>
+      </c>
+      <c r="E958">
+        <v>3</v>
+      </c>
+      <c r="F958">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>0</v>
+      </c>
+      <c r="B959" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C959" t="s">
+        <v>121</v>
+      </c>
+      <c r="D959" s="1">
+        <v>45114</v>
+      </c>
+      <c r="E959">
+        <v>3</v>
+      </c>
+      <c r="F959">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>0</v>
+      </c>
+      <c r="B960" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C960" t="s">
+        <v>121</v>
+      </c>
+      <c r="D960" s="1">
+        <v>45110</v>
+      </c>
+      <c r="E960">
+        <v>3</v>
+      </c>
+      <c r="F960">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>0</v>
+      </c>
+      <c r="B961" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C961" t="s">
+        <v>121</v>
+      </c>
+      <c r="D961" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E961">
+        <v>3</v>
+      </c>
+      <c r="F961">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>0</v>
+      </c>
+      <c r="B962" s="1">
+        <v>36425</v>
+      </c>
+      <c r="C962" t="s">
+        <v>121</v>
+      </c>
+      <c r="D962" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E962">
+        <v>3</v>
+      </c>
+      <c r="F962">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
